--- a/web/excel/expense_request/ExpenseRequest.xlsx
+++ b/web/excel/expense_request/ExpenseRequest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\expense_request\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E419D1-DAE6-48D8-B446-818A6886883A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D51AD5-5A9D-45A7-897A-4002599B0DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{94E39060-5D8C-44FD-BC6B-0929EE0453A4}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{94E39060-5D8C-44FD-BC6B-0929EE0453A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Anticipo" sheetId="1" r:id="rId1"/>
@@ -229,35 +229,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +633,7 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
@@ -691,15 +691,15 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
@@ -718,12 +718,12 @@
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
@@ -731,12 +731,12 @@
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -744,12 +744,12 @@
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
@@ -757,12 +757,12 @@
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
@@ -770,12 +770,12 @@
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
@@ -783,12 +783,12 @@
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -796,12 +796,12 @@
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
@@ -809,12 +809,12 @@
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -822,12 +822,12 @@
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
@@ -855,196 +855,196 @@
     </row>
     <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="10">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="10">
-        <v>0</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="16">
-        <v>0</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="10">
-        <v>0</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="10">
-        <v>0</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="B30" s="13">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="10">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="10">
-        <v>0</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
@@ -1060,16 +1060,16 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
@@ -1096,17 +1096,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="F5:G5"/>
@@ -1123,6 +1112,17 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
